--- a/biology/Médecine/Syndrome_de_Skeeter/Syndrome_de_Skeeter.xlsx
+++ b/biology/Médecine/Syndrome_de_Skeeter/Syndrome_de_Skeeter.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le syndrome de Skeeter est une réaction allergique sévère[1] mais relativement rare causée par la piqûre d'un moustique (en), plus précisément par les polypeptides allergènes présents dans la salive des moustiques. Cette réaction se caractérise par une inflammation locale de la peau et est parfois accompagnée d'autres symptômes comme une fièvre légère, du prurit et des vomissements.
-Bien qu'il ne soit pas inscrit dans la classification internationale des maladies, le terme a été introduit en 1999 dans la littérature scientifique par F. Estelle R. Simons et Zhikang Pen[2]. Le terme « Skeeter » est de l'argot américain pour désigner les moustiques, d'où le nom « Skeeter syndrome » en anglais.
-Il touche plus souvent les individus ayant une immunité diminuée ou n'ayant jamais été exposé à l'allergène indigène, à l'instar des enfants et des immigrants[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le syndrome de Skeeter est une réaction allergique sévère mais relativement rare causée par la piqûre d'un moustique (en), plus précisément par les polypeptides allergènes présents dans la salive des moustiques. Cette réaction se caractérise par une inflammation locale de la peau et est parfois accompagnée d'autres symptômes comme une fièvre légère, du prurit et des vomissements.
+Bien qu'il ne soit pas inscrit dans la classification internationale des maladies, le terme a été introduit en 1999 dans la littérature scientifique par F. Estelle R. Simons et Zhikang Pen. Le terme « Skeeter » est de l'argot américain pour désigner les moustiques, d'où le nom « Skeeter syndrome » en anglais.
+Il touche plus souvent les individus ayant une immunité diminuée ou n'ayant jamais été exposé à l'allergène indigène, à l'instar des enfants et des immigrants.
 </t>
         </is>
       </c>
